--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/9_Ardahan_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/9_Ardahan_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6294926E-7631-494E-8BE0-9EDAA1FEF896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7526F9F5-3785-4EB6-ABC0-E92B881271BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="663" xr2:uid="{7C631F86-2AD1-4B42-8122-71B010906D0B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{1DDEFA43-94C4-44B4-AF19-516189BE8746}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="124" r:id="rId1"/>
@@ -970,15 +970,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4B6B7EAF-ACC9-4E51-BF87-24BD8C248CA1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A2EE5C57-D52D-4D1E-A899-3EDF191BC1A6}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{CF5AA005-82F6-44EE-86C7-542E0B46F9F1}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{93DB21B4-7A9D-40D3-88FF-0D22AE138CF9}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{DF49F007-5C39-4EFB-9FED-32669C5727FB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{DB1CBF55-AB36-4C27-900E-27FFE0336D68}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{BC689C5C-9B74-452B-93CE-D931F8E7CA2A}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{4B9BAA76-C478-45F1-8EB9-8DE558B7E057}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{713B4240-1C94-448A-9BC0-E2ACE3AE3FB2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{682BAFD5-0430-480D-A09F-2DC3E5425947}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{092395AC-0C4F-433F-BC93-E510C7FFD8A6}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{31EFC51A-110B-4B9A-B381-EC87F9C1451C}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{7399591B-2DC1-49AD-AF19-69943C4B5A12}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{8BF53B4A-3C4A-4583-BBBF-44725089FBB7}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{F164A7D5-2EFD-4298-A420-7645BBFB82C2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{B47568F1-4C15-431C-9040-22EA0E7AA83E}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{BA62B2BF-FAE5-4338-B85B-37E026AC85B7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{5F81C97C-DA01-4A0B-91AE-025EE3BCE067}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1348,7 +1348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A16210-DE24-415C-BCEB-1D8F9F36D2F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEBC874-A59E-44C9-9859-20551435CEBA}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2604,17 +2604,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC39C5CE-96BC-4FE5-818B-87525AE0EAAF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B645F5BA-96CB-4F12-AA65-993053528706}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A9F3F1D-3C56-4D41-BC53-F26866F82241}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0EA77131-597D-4B5A-BC21-C25FEE8B108F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3050E0E6-1C4F-4190-92D0-18A4B1A63645}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67A9FF3B-F2D6-483F-B5FF-F99C54220303}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE0F2FF9-A7F5-4A58-8E36-6D2043040939}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{606AEED9-2910-4457-B92B-2CF4782D1CB0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9C891C8C-90F0-4C53-887B-72B9B400CFEE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0886A826-84F8-4667-86BD-B6F9DA5B8B11}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F9550C1-391D-47E2-948D-19A58B32C935}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BF9D8E6-C914-42E5-B63E-0723920E7612}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B5E1F85-6B21-452E-8779-35CC7F04B740}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{05951B83-5354-4083-9D70-26587F26DB31}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EDDD4FC6-1992-4BF2-8AD0-9BCC2A3EF1AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6612010-DA9D-4A0E-8D61-D4343F8096EF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD120CF2-959D-4C0D-97DF-79CE5F5E7639}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{638868F3-2988-483C-972A-6C8572B18933}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8616DB0-A6DF-4119-930C-A5FF2310A629}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DF281154-69E6-4DFA-8EC6-DA6F7121F396}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CFB5EF55-7735-448F-B1D8-1A39A284FAE3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F0AD658-C530-4BEF-BD4A-29EB4CCAE76B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2627,7 +2627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0BD66A-8F24-4C7B-B7C4-FF5DD1A8A86F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E35515-A573-4E10-AFC2-D3E890182722}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3844,17 +3844,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F294BF4-9783-4B41-A282-E2B91B6628C1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{960F9E09-4051-4F40-81E4-E00FD10C28BE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DCE5DD91-D4C8-405D-BC82-C73FD38591F3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6B9C04CD-A5A5-4B80-9623-93FA2CEABBFC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19784979-4CE1-4923-A2BC-C2064B41FEC1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7CA7EDB0-685A-4039-A850-33347A52D2EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2F9C11CB-E4DA-4CFB-A854-A7B51955CEC2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8830364A-0BEF-432D-B9DD-5395F92CFC35}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{31580FC1-2881-43EC-B6EF-E416C01BE1F5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0F38282E-8ED0-41D1-A66E-C7520C5FE06B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3989385-A1DA-492C-B937-662ABC61FD8A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D7A2368-CEDD-4CA3-BBBA-39DDA7C6FB61}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26533EBE-A014-4AAF-A652-85DB6C4650E0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{23CD8744-5651-4AAC-A5F7-12AB25A23DBC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31CB03B1-3F01-493B-8425-3F102CE0F220}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EA0D3519-1113-4E7A-8ADC-9901A635F8F9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB4097AF-5FEF-4C69-A211-7E81BFC6203A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{19004982-DFD6-4732-A992-9E958B5ED6E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B90C7D8-D883-4C57-AC77-FFE48B310C64}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7EE7BC4A-DBBC-4855-8B0F-7353DFA2F992}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0B0FE94E-C058-4691-BC61-21DDBFCFFFDA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A152A75B-B28A-443B-846B-63F8D3BFDC40}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3867,7 +3867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6327FED4-AE38-495A-AA55-120EB6188E51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5722F09A-B4DF-4B22-8224-23378D65CDA4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5078,17 +5078,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11360B51-C56A-462A-95E8-B49837D2D2FA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B64D6879-8622-4C2E-8B43-E2512A12C025}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{29A444FC-98DA-458D-939D-BA687E29707D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E2931993-851A-4C76-BA00-3B377BF97403}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA6F3AA7-FFFA-4AED-AAD3-B835A169C00F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A258245D-1579-4A4D-AD43-D585741254AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB84CE7B-BE1A-49E8-A034-256696058363}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B0CFF19-1A3F-4BBF-BEC1-D7D06F27D7A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0E69F9B5-C358-40C3-BF0A-C1F387645534}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{77B04A6E-EED4-446D-889F-A53AFACF8AE0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{924BF13F-7594-4DEF-8FB3-0C3276565592}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10B7DA49-9D8C-4929-98B7-8A762DF474FD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07E8BC22-2CBC-41B5-ADB0-E0C04755F091}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{518DD40C-89C0-461D-92E3-A14FB147146E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{61E56727-3C01-4B0C-8375-8BF9B233AFCB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9943A96D-573F-4795-8E72-A4F112CDBE7A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3233428B-0AEA-437F-B62B-560240820A72}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8CC3D34D-FEA3-46C5-B385-9A73F19AF08F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42C522B8-7701-45F5-B26A-5784FE92630C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0714F8F1-8DAD-4493-89AE-2C9CFB224273}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D1F8FE99-D53E-4CC5-95C8-42FA186EEEE0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03BA5C69-8880-4479-A290-9BB7B7C75A3D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5101,7 +5101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57534A52-85E4-4139-9130-398C773088ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17DAF39-9824-4888-91D0-82451E571776}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6308,17 +6308,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FBD7E045-20AE-40D5-BB10-07786139BE84}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{557B8DC6-9BE6-4CEF-9ABB-FC19CA921B75}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8DDD3FDE-314E-45EC-B4B1-EBCB8FB49819}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AC8E70FF-E54D-4C53-9A95-527AF0278706}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A231875F-8E3D-46C9-99EE-CBE35AF7FD43}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9B67846-4207-4091-A087-9C431156D711}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{065A12DD-BD42-4208-B662-31C4712EB360}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ECD35107-F292-46AF-84EF-498E4E9AD806}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7EA4DB49-4FDC-4A36-80FF-5E91303339D2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C76BC09E-6E73-4E04-A988-756428342024}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC808A60-3B6C-432D-B26E-7082CB9FD5AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C721F888-AB1A-43C3-8E2F-298B6B7E3D89}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19B460FD-1A00-4017-9939-36365008351B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CD08C25A-38A0-4A09-B41D-F2AA4F30A24E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{698BB88A-C448-49EE-9731-5F5F163A02DF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E6F9108-A947-46EF-BC7D-39B5B6B5CAAD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DB34AD8-2AB4-48B9-A56C-541FEAFE5B7D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{073483AB-0602-4990-B051-5C34188FCEA1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE4114DF-3040-46F6-AB56-98E4F4A43B5F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{401D1977-B9A9-4DC0-A039-3E63B80D39E6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C7B0A8F5-632C-439D-8DA7-01AC8D41CF47}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9B0248C-2C69-4771-8F18-28B847F3ADD6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6331,7 +6331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863018F7-12DA-4991-AAF5-275001ABD473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC84927A-CC2A-4690-A5BF-7EA8EAD31D6E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7552,17 +7552,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39A2CBB2-8001-45D3-8818-26469FF662C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4CCCA54-3995-4731-9461-31020E590E24}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{101348AE-85FC-410C-9C42-72B375A2095B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6D930E1C-AEFE-446F-85B0-D4C82FD4D343}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{687C9856-111C-4C2E-BDA8-55F216642DC8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{752EFFE6-D03E-43B8-BF0D-A97B28FD3704}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A0317456-2FF9-4B99-820B-022CAE13220C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C19D79B-512F-44B7-96A4-817F42849490}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{07453E13-BBAF-4FD0-B82E-C007B5761E28}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{92A84B77-3C87-45B4-A3C7-C07F9F252108}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A8C1A0D-AAA8-4902-95C1-411BA1ED3673}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C1ED11E-B430-4737-BFA4-8EEB81FD843D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F05BA7D-E8E4-4781-BEE9-E9C9420C70CA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D68BE92E-39E9-4C49-BC10-1BCEBA40A95F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E0F80400-D455-412E-BF78-AB8E05F8398B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63A97250-5B5A-425D-A844-6AD97E8DE8BA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8772CCE-3A65-408C-9BFF-0198DC5C612D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55524910-EDBC-48E5-8061-D7B0511F7218}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E7A264E-DE1C-4745-8D12-292505B9A490}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{146667C3-0AEF-42ED-8090-3EC3ED1CD419}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{91F39AE0-DAA0-4484-816A-7CF7352F5133}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3EFBF216-8EA2-479D-A1BC-5F971E821770}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7575,7 +7575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CE4C8F-DE76-4D3E-971A-C6E595289A39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335A79BB-D6EF-43C7-B4AF-12817E65A999}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8796,17 +8796,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A002AD95-D8FF-4C1C-8A6A-6ADC2DA62363}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6DF1B74-B45B-4DBD-97A5-E3A4F90492EA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0BD465F-5739-4A3D-9039-052706EFEE98}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9645527B-494E-4864-BC14-94C34C048604}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3EC63342-C73B-4728-93DF-3AB887D013C2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A882013E-0351-4E1B-9CEA-A434CAF184FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8B75E0A-0680-47A0-9CE1-517BB36B811A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6B98380-9AD0-4792-A91B-E197742C27D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1EF9D778-5495-4EBA-90F8-CA62EF310B19}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{39D14885-F916-4B80-9A98-E222B7EEB453}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3EF1F2C-4079-4479-AB88-35EF12BA5B56}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9C92696-D145-464D-B06B-BA005F7C5F15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD01CADA-4F52-4CC5-A100-75DE341154A8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5023D21E-F3FD-457E-8894-AD518154A553}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E0E111DD-084C-44C1-B9F4-11F83A82CAD7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{76B21755-91B7-4D33-AD2C-52575BEFA450}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A46A439-09E5-412A-9315-253BE9E834C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C100B69-68AD-471F-9376-16ED3163CC8D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D1227D3-F613-4985-B65A-C00828BBD7CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BADE37C8-674D-4E55-A462-7E18D0F72081}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F5F83B28-A6A4-4B2E-916A-DA3B0BCF887A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{252D3EA1-C122-4B9E-B69B-9D6E79592C0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8819,7 +8819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A1045C-E0C1-4144-A3AD-3B032CF77B6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83506A5-9207-4B82-A833-2C47446F2064}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10040,17 +10040,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C717918-1076-41F7-8F66-131D73410DA4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E4E6B0B-FB4D-4083-9ECD-07BE30BC0A43}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C563D0D-A9B5-4F50-A4C0-DEDBAE7B1090}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6452E871-F039-4EA4-8C84-3EEFF57D8BB9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5680184-A72A-4569-A0AD-685027C777BC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5AADF995-4424-40B8-A584-CB5ED5DE9FC8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{329A361C-E774-474E-B308-D3262EFD9BA0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FE4A1ED0-6548-493F-9D53-106BF350899E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5B6358EB-CE73-44F9-8A38-F3583E10A56A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D58B5EEC-CAA7-41A3-B20C-914A96F7410D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC0F7197-7DBE-42F2-A83A-C50638138447}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6601BD2E-1944-4145-9BED-BBF5EA2119A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FC0E9AF-0D45-441C-B8C2-3C08279A487A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{824AE931-51BB-4118-ADFE-79DD1D301859}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B4FB74D-031C-4A7E-B37F-5CF05DDBF7A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7BDF20F3-0ED8-4D2D-BB53-44AA0246A7D4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A824811-03A1-4C05-B24A-886E41ACEBD6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13C163A9-C5EE-4D69-8E89-CAB3A3612C62}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D2832EB-6581-4A3E-BB81-2E2F2EEDCD4C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B45573DB-675F-4D41-8469-4DBAF0FCA1F5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8EB63CC0-E252-47F1-AF4E-429A0B9D167E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7324DFDB-29D9-4FFC-925F-7E2D5D834D7E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10063,7 +10063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71287030-5939-4FA7-BC26-02FC5B2B01B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FCF2A5-E1A3-42E2-8110-F843F1374094}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11284,17 +11284,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{376C6D8F-8E55-466A-A0BD-CBED414DBC87}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0460508E-448F-4011-B7D0-195CED1BC151}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{30F95DC9-DB54-4CA3-98F9-4695B5FA9455}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC3D4A09-7073-487F-93AD-C51951733B35}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7BBB07CF-425F-4869-A1C0-874F0A677AA9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{71BC746D-8264-4997-8CA7-118C8198AEB0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{048A4E6D-A485-44C8-A7DB-D1DFD77E91DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{610AC823-DA0F-409E-B44B-DE1B23BCE057}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8A1246D0-9821-4CCF-94A9-5E4754E31C6F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EE57FFCF-8FC1-4509-A02E-14F4E3838513}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E91E8FD5-5749-4041-869D-10B99E79D8A9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DF32335-1D3F-4733-B300-7CFF8B243530}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91ED9A4A-25FD-47F1-A0DD-94EEBE8D7A00}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{84BF19AD-3E38-4DCB-B4EE-A90D36FA504D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{584A4CD1-23ED-480E-BBDE-C6892CC040DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{29C75032-5FC7-44F9-B3B2-C780F7F66BC5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{38B59F6A-DD0B-4EC0-8BDC-F9BA83A19CDE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA61D243-889B-4F9C-84AD-66EFEDD4E232}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E5EF8B2-E94D-4C9A-AFE5-3DF7E2D95CE3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{991F1DE9-1F76-4A1D-A366-4945AC0252CF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6D0E0B4B-1D31-4FDC-A2AF-7581263E3229}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB5E3ACF-2648-4200-981D-05E18C333061}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11307,7 +11307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A4A24E-468C-43A1-A0F0-065891068759}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2722746-D81E-4E7F-8599-C0C7624BC497}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12528,17 +12528,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B36C0CEF-6C40-4716-B2C4-EB1914F86602}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1E95454-DBC0-4E93-BB9D-8FF9CC1642EF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{059A1BBC-1597-4812-9CB8-7BD3FBBA41FD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D67C194-DF60-43E6-BF39-F07B24EB37DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71BBAB2C-ADD4-4C0E-A637-5D63C6E37914}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F7DDDA35-755F-46C3-A8D8-34282DFE52E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9FCBDF85-CD1E-440D-AB01-F2678FC39958}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37961897-E6D5-4BEF-994A-2C19BFE63ED9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E592E9D7-9659-40DC-A14C-73E5441B62AF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{54173555-17FE-4D3D-8B0B-A4D732969825}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E97E7BE8-71EA-4099-BC6B-0F67C7B2F88B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB78D6F3-B841-44DA-8F33-B3B1B65FD54B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D75B8EDC-3647-473D-A77E-06DD24ABBF76}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F691D620-73D1-46B5-9913-E99B952B91F3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0158ACC4-AAC2-4B60-937E-645D6BEA6CF1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D09E980-72CC-48DD-A3BF-42E30EA7827E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A89FEA8-7FF1-4E4A-8EDB-78C76A6F24E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8402A1D4-1D53-4CD2-AB51-007B57DD446C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1854A332-6070-44C4-8EDE-96405B33DAF8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BAAB764E-4280-40F6-81F9-8C66684CA2D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C751644A-904A-47AE-BF88-1EE0AF9BEFF6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B387129-B952-488D-956D-60F770349BD1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12551,7 +12551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B17244-AF41-47FB-AFF6-344C8DFFCFFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCB474E-7245-4E55-A6E0-070FF009D71B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13778,17 +13778,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB2D9812-9F6B-46B1-9BD2-14B3634BF20C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33C72AAB-97DE-422D-8F2B-3845C38639E4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{99208A59-A238-4FEF-BC19-55DD84CD205C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DDA02A3F-DF54-49F8-8373-F0943C3D8698}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{873B7C64-9B42-4B31-82A7-9AD13D8A1967}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67B5A825-A3BC-4465-AC92-201142A76DEB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{894F2DBD-55A1-49D9-B661-5AB8B5396938}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96F6F9BA-AC8F-4661-9687-7534D6E6C2D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E0CA4852-0398-4282-B5AE-DF216906C4E0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{317C3D1C-1C18-4483-8F88-0AFFCC27B626}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D45DF6B2-1D9B-4367-BE32-A7EE2BC9B2F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB962A68-4127-4FF7-BA05-60F3610695AF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17FC811F-539B-4F0A-A088-58D669A1782A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EB8E4382-4D50-48BB-AEB9-288F7D391CD4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E566F527-18F9-485B-B30A-05A84DAD2B7D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1DA8A6E-6528-428E-AD22-320E86BA64AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3224BCBB-FA49-4833-9195-85BF05795134}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{254FFC06-D35B-4830-8F11-3E1EEC56AA76}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E13D050C-AB01-4F9F-8AB9-11B0431FC55E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{52C50618-948A-4A85-898C-B74F2F8F8173}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F7353FC4-A509-44B7-B714-63384DDBDBF9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA4A9FBF-8E55-4D02-BC71-504E1354D934}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13801,7 +13801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BCAE61-5F76-44EE-A405-CE24D2DCD772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D25CA8C-0EEA-494B-9F02-8088CFF1A14E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15022,17 +15022,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{069F383A-59E7-47D1-91E9-C9306AACF4C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{050DBF9E-FD0D-4871-A5AE-E000599AD88F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B40B612C-5119-4FDD-A17A-BD4B290651F6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92137204-EEF2-4A95-AC60-6730E8D81E3C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60A2A1FF-8AA5-4F6B-BBB1-F00136EB639F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C4B28CE0-8ABF-4BC6-AA35-116612CB5146}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92B37726-CCF7-405F-AE5A-8DBCC21866F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1866127-71B4-4B44-AEBB-5BF49291B93C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{013F5797-1F06-44A2-8091-A2DE3B196E20}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CD9D3577-83AC-43D9-B40E-88723284B630}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F8CB7A43-E783-4903-9A37-65A5E341E4CF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4226D16-DA8F-4C02-81EF-79062FC145A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1DB8F657-94DF-41D9-9065-42D97838A890}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F6975BB-15FF-4739-9EAB-18BE30166973}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F747BAA8-232D-480D-947B-6354CBDDA9B7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9CAC5224-BCD0-430E-BF76-83B39EE259C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B83A2111-4821-4CDE-A540-46819D5A4259}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB4AB913-D009-434A-AF9E-91FE70DAD479}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70D61E64-A9F6-4F3E-97DB-9DA560DD6332}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{58E270A7-C02C-4E48-A91D-29DE3E5F7B7D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{38DA7620-7548-4C05-A680-5451D20B222B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C476AE1A-03E1-4C68-A80A-0062A3F5EDE2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15045,7 +15045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D479F072-1287-4C75-BEA4-3D469A29CE76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4DCF56-1217-4736-B64B-F87A7108C418}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16264,17 +16264,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E408254A-B112-4840-83B3-AD0DD8C1A6F5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{352D68E2-629A-4D47-ACE7-39098F58BC8D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A2CF1D69-5502-429A-97E6-8A21E6A1A3CE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D576F984-35EE-4BEC-967C-E5E30D8F779A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF96B5FD-4BBE-4606-97EF-2FD2EDC70587}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A7BA0A2-4F98-4A7D-9B72-8DC4518E015E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59E00A5F-55B5-49C9-9855-F75B67D0A98B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A9A1062-9EB3-4441-ADDB-D95DF619F0A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7304EED9-4CEA-4E8A-9307-A9A01998094B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{29CD1806-3CCD-4197-BEBC-4828773ADD6F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCF64C7A-253D-48CD-970D-5D0F96695B8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91304768-8291-452C-B0A9-B69D28A827B7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{356F83A2-E467-48E2-A4E3-612820ACCCD9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{728C95E5-B547-4521-B244-09AC56836BB6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B57D013-E35C-411B-89AC-5656F74F5617}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D504199-4E69-4AA8-AA1F-8F5BBDC6E10B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81F195CF-02B7-4380-996E-C2EF1AF4F212}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA2C86FD-FC2F-416A-B515-D9204ACE5029}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE3E0C38-542C-4FCC-91B6-9FD7DD550667}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D9E18D6C-421F-48DE-B709-9A1C0D61A734}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F47615DB-15A0-4DCF-9473-042D4A38102D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E75150C6-2832-4988-942E-CCF27B5D4D4E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
